--- a/Bases/yield_bonds.xlsx
+++ b/Bases/yield_bonds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab0c69195da0d17f/Documentos/GitHub/Macro_2021.2/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="8_{CD27F2C2-8BE0-4618-B3FE-CAA317434422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9124DDD-15F3-4EFE-9E5B-7B6080A338D2}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="8_{CD27F2C2-8BE0-4618-B3FE-CAA317434422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F61667B-C673-4A1F-9180-07254A4CE64C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5CAAF1C2-B6A6-4E78-9B9A-A20812997871}"/>
   </bookViews>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256EA893-3A7C-4C52-AB4F-F30ADE6BC45B}">
   <dimension ref="A1:C640"/>
   <sheetViews>
-    <sheetView topLeftCell="A622" workbookViewId="0">
-      <selection activeCell="C602" sqref="C602:C609"/>
+    <sheetView topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="C627" sqref="C627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +819,9 @@
       <c r="B27" s="1">
         <v>2009</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>12.628</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -828,7 +830,9 @@
       <c r="B28" s="1">
         <v>2008</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>14.077</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -848,7 +852,9 @@
       <c r="B30" s="1">
         <v>2006</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>14.56</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1535,7 +1541,9 @@
       <c r="B93" s="1">
         <v>2007</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="C93" s="1">
+        <v>4.577</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -2033,7 +2041,9 @@
       <c r="B139" s="1">
         <v>2009</v>
       </c>
-      <c r="C139" s="1"/>
+      <c r="C139" s="1">
+        <v>5.6379999999999999</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -2042,7 +2052,9 @@
       <c r="B140" s="1">
         <v>2008</v>
       </c>
-      <c r="C140" s="1"/>
+      <c r="C140" s="1">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -2393,7 +2405,9 @@
       <c r="B173" s="1">
         <v>2007</v>
       </c>
-      <c r="C173" s="1"/>
+      <c r="C173" s="1">
+        <v>10.955</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -4618,7 +4632,9 @@
       <c r="B376" s="1">
         <v>2012</v>
       </c>
-      <c r="C376" s="1"/>
+      <c r="C376" s="1">
+        <v>6.0970000000000004</v>
+      </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
@@ -5639,7 +5655,9 @@
       <c r="B469" s="1">
         <v>2015</v>
       </c>
-      <c r="C469" s="1"/>
+      <c r="C469" s="1">
+        <v>4.1079999999999997</v>
+      </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
@@ -5714,7 +5732,9 @@
       <c r="B476" s="1">
         <v>2008</v>
       </c>
-      <c r="C476" s="1"/>
+      <c r="C476" s="1">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
@@ -6218,7 +6238,9 @@
       <c r="B522" s="1">
         <v>2010</v>
       </c>
-      <c r="C522" s="1"/>
+      <c r="C522" s="2">
+        <v>7.6539999999999999</v>
+      </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
@@ -6227,7 +6249,9 @@
       <c r="B523" s="1">
         <v>2009</v>
       </c>
-      <c r="C523" s="1"/>
+      <c r="C523" s="2">
+        <v>10.717000000000001</v>
+      </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
@@ -6236,7 +6260,9 @@
       <c r="B524" s="1">
         <v>2008</v>
       </c>
-      <c r="C524" s="1"/>
+      <c r="C524" s="2">
+        <v>9.3970000000000002</v>
+      </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
@@ -6325,7 +6351,9 @@
       <c r="B533" s="1">
         <v>2015</v>
       </c>
-      <c r="C533" s="1"/>
+      <c r="C533" s="1">
+        <v>11.291</v>
+      </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
@@ -6444,7 +6472,9 @@
       <c r="B544" s="1">
         <v>2004</v>
       </c>
-      <c r="C544" s="1"/>
+      <c r="C544" s="1">
+        <v>9.4540000000000006</v>
+      </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
@@ -6530,7 +6560,9 @@
       <c r="B552" s="1">
         <v>2012</v>
       </c>
-      <c r="C552" s="1"/>
+      <c r="C552" s="1">
+        <v>5.8120000000000003</v>
+      </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
@@ -6550,7 +6582,9 @@
       <c r="B554" s="1">
         <v>2010</v>
       </c>
-      <c r="C554" s="1"/>
+      <c r="C554" s="1">
+        <v>4.3574999999999999</v>
+      </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
@@ -6559,7 +6593,9 @@
       <c r="B555" s="1">
         <v>2009</v>
       </c>
-      <c r="C555" s="1"/>
+      <c r="C555" s="1">
+        <v>4.8959999999999999</v>
+      </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
@@ -6568,7 +6604,9 @@
       <c r="B556" s="1">
         <v>2008</v>
       </c>
-      <c r="C556" s="1"/>
+      <c r="C556" s="1">
+        <v>5.0374999999999996</v>
+      </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
@@ -7282,7 +7320,9 @@
       <c r="B626" s="1">
         <v>2018</v>
       </c>
-      <c r="C626" s="1"/>
+      <c r="C626" s="1">
+        <v>8.6630000000000003</v>
+      </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
@@ -7449,7 +7489,7 @@
   <dimension ref="A1:C625"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C611" sqref="C611"/>
+      <selection activeCell="C610" sqref="C610:C612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7593,6 +7633,10 @@
       <c r="B12" s="2">
         <v>2009</v>
       </c>
+      <c r="C12" s="2">
+        <f>Sheet1!C27-Sheet1!C11</f>
+        <v>8.7911999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -7601,6 +7645,10 @@
       <c r="B13" s="2">
         <v>2008</v>
       </c>
+      <c r="C13" s="2">
+        <f>Sheet1!C28-Sheet1!C12</f>
+        <v>11.864699999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -7621,6 +7669,10 @@
       <c r="B15" s="2">
         <v>2006</v>
       </c>
+      <c r="C15" s="2">
+        <f>Sheet1!C30-Sheet1!C14</f>
+        <v>9.857800000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -8365,6 +8417,10 @@
       <c r="B78" s="2">
         <v>2007</v>
       </c>
+      <c r="C78" s="2">
+        <f>Sheet1!C93-Sheet1!C13</f>
+        <v>0.55379999999999985</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -8901,6 +8957,10 @@
       <c r="B124" s="2">
         <v>2009</v>
       </c>
+      <c r="C124" s="2">
+        <f>Sheet1!C139-Sheet1!C11</f>
+        <v>1.8011999999999997</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
@@ -8909,6 +8969,10 @@
       <c r="B125" s="2">
         <v>2008</v>
       </c>
+      <c r="C125" s="2">
+        <f>Sheet1!C140-Sheet1!C12</f>
+        <v>4.5876999999999999</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -9281,6 +9345,10 @@
       <c r="B158" s="2">
         <v>2007</v>
       </c>
+      <c r="C158" s="2">
+        <f>Sheet1!C173-Sheet1!C13</f>
+        <v>6.9318</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -11701,6 +11769,10 @@
       <c r="B361" s="2">
         <v>2012</v>
       </c>
+      <c r="C361" s="2">
+        <f>Sheet1!C376-Sheet1!C8</f>
+        <v>4.3396000000000008</v>
+      </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
@@ -12813,6 +12885,10 @@
       <c r="B454" s="2">
         <v>2015</v>
       </c>
+      <c r="C454" s="2">
+        <f>Sheet1!C469-Sheet1!C5</f>
+        <v>1.8385999999999996</v>
+      </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
@@ -12893,6 +12969,10 @@
       <c r="B461" s="2">
         <v>2008</v>
       </c>
+      <c r="C461" s="2">
+        <f>Sheet1!C476-Sheet1!C12</f>
+        <v>6.0877000000000008</v>
+      </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
@@ -13441,6 +13521,10 @@
       <c r="B507" s="2">
         <v>2010</v>
       </c>
+      <c r="C507" s="2">
+        <f>Sheet1!C522-Sheet1!C10</f>
+        <v>4.3605</v>
+      </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
@@ -13449,6 +13533,10 @@
       <c r="B508" s="2">
         <v>2009</v>
       </c>
+      <c r="C508" s="2">
+        <f>Sheet1!C523-Sheet1!C11</f>
+        <v>6.8802000000000003</v>
+      </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
@@ -13457,6 +13545,10 @@
       <c r="B509" s="2">
         <v>2008</v>
       </c>
+      <c r="C509" s="2">
+        <f>Sheet1!C524-Sheet1!C12</f>
+        <v>7.1847000000000003</v>
+      </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
@@ -13545,6 +13637,10 @@
       <c r="B518" s="2">
         <v>2015</v>
       </c>
+      <c r="C518" s="2">
+        <f>Sheet1!C533-Sheet1!C5</f>
+        <v>9.0215999999999994</v>
+      </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
@@ -13673,6 +13769,10 @@
       <c r="B529" s="2">
         <v>2004</v>
       </c>
+      <c r="C529" s="2">
+        <f>Sheet1!C544-Sheet1!C16</f>
+        <v>5.2358000000000002</v>
+      </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
@@ -13765,6 +13865,10 @@
       <c r="B537" s="2">
         <v>2012</v>
       </c>
+      <c r="C537" s="2">
+        <f>Sheet1!C552-Sheet1!C8</f>
+        <v>4.0546000000000006</v>
+      </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
@@ -13785,6 +13889,10 @@
       <c r="B539" s="2">
         <v>2010</v>
       </c>
+      <c r="C539" s="2">
+        <f>Sheet1!C554-Sheet1!C10</f>
+        <v>1.0640000000000001</v>
+      </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
@@ -13793,6 +13901,10 @@
       <c r="B540" s="2">
         <v>2009</v>
       </c>
+      <c r="C540" s="2">
+        <f>Sheet1!C555-Sheet1!C11</f>
+        <v>1.0591999999999997</v>
+      </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
@@ -13801,6 +13913,10 @@
       <c r="B541" s="2">
         <v>2008</v>
       </c>
+      <c r="C541" s="2">
+        <f>Sheet1!C556-Sheet1!C12</f>
+        <v>2.8251999999999997</v>
+      </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
@@ -14528,6 +14644,10 @@
       </c>
       <c r="B611" s="2">
         <v>2018</v>
+      </c>
+      <c r="C611" s="2">
+        <f>Sheet1!C626-Sheet1!C2</f>
+        <v>5.9787999999999997</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">

--- a/Bases/yield_bonds.xlsx
+++ b/Bases/yield_bonds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab0c69195da0d17f/Documentos/GitHub/Macro_2021.2/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="8_{CD27F2C2-8BE0-4618-B3FE-CAA317434422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F61667B-C673-4A1F-9180-07254A4CE64C}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="8_{CD27F2C2-8BE0-4618-B3FE-CAA317434422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5566525A-C748-424F-8C1F-C08CBD798DC3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5CAAF1C2-B6A6-4E78-9B9A-A20812997871}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="49">
   <si>
     <t>Chile</t>
   </si>
@@ -97,12 +97,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -159,12 +153,42 @@
   <si>
     <t>Ano</t>
   </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>2004, 2005</t>
+  </si>
+  <si>
+    <t>Bulgária</t>
+  </si>
+  <si>
+    <t>2004, 2005, 2006</t>
+  </si>
+  <si>
+    <t>2004, 2005, 2006 e 2007</t>
+  </si>
+  <si>
+    <t>Egito</t>
+  </si>
+  <si>
+    <t>2004, 2007, 2009</t>
+  </si>
+  <si>
+    <t>Romênia</t>
+  </si>
+  <si>
+    <t>2004, 2005, 2006 e 2008</t>
+  </si>
+  <si>
+    <t>Foi feita a média dos 3 anos subsquentes para calcular o rendimento nesses anos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,16 +196,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,11 +225,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +252,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,20 +573,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256EA893-3A7C-4C52-AB4F-F30ADE6BC45B}">
-  <dimension ref="A1:C640"/>
+  <dimension ref="A1:H608"/>
   <sheetViews>
-    <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="C627" sqref="C627"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -536,10 +597,16 @@
       <c r="C1" s="1">
         <v>1.9175</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>2018</v>
@@ -547,10 +614,16 @@
       <c r="C2" s="1">
         <v>2.6842000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>2017</v>
@@ -558,10 +631,19 @@
       <c r="C3" s="1">
         <v>2.4054000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>2016</v>
@@ -569,10 +651,16 @@
       <c r="C4" s="1">
         <v>2.4443000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>2015</v>
@@ -580,10 +668,16 @@
       <c r="C5" s="1">
         <v>2.2694000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>2014</v>
@@ -591,10 +685,16 @@
       <c r="C6" s="1">
         <v>2.1711999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>2013</v>
@@ -602,10 +702,16 @@
       <c r="C7" s="1">
         <v>3.0282</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>2012</v>
@@ -614,9 +720,9 @@
         <v>1.7574000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>2011</v>
@@ -625,9 +731,9 @@
         <v>1.8762000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>2010</v>
@@ -636,9 +742,9 @@
         <v>3.2934999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>2009</v>
@@ -647,9 +753,9 @@
         <v>3.8368000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>2008</v>
@@ -658,9 +764,9 @@
         <v>2.2122999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>2007</v>
@@ -669,9 +775,9 @@
         <v>4.0232000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>2006</v>
@@ -680,9 +786,9 @@
         <v>4.7022000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2005</v>
@@ -691,9 +797,9 @@
         <v>4.3910999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>2004</v>
@@ -704,7 +810,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>2019</v>
@@ -715,7 +821,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>2018</v>
@@ -726,7 +832,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>2017</v>
@@ -737,7 +843,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>2016</v>
@@ -748,7 +854,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>2015</v>
@@ -759,7 +865,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>2014</v>
@@ -770,7 +876,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>2013</v>
@@ -781,7 +887,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2012</v>
@@ -792,7 +898,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>2011</v>
@@ -803,7 +909,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
         <v>2010</v>
@@ -814,7 +920,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>2009</v>
@@ -825,7 +931,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>2008</v>
@@ -836,7 +942,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>2007</v>
@@ -847,7 +953,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>2006</v>
@@ -858,25 +964,31 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1">
         <v>2005</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <f>AVERAGE(C28:C30)</f>
+        <v>13.695666666666668</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1">
         <v>2004</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <f>AVERAGE(C29:C31)</f>
+        <v>13.568555555555555</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1">
         <v>2019</v>
@@ -887,7 +999,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1">
         <v>2018</v>
@@ -898,7 +1010,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1">
         <v>2017</v>
@@ -909,7 +1021,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" s="1">
         <v>2016</v>
@@ -920,7 +1032,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1">
         <v>2015</v>
@@ -931,7 +1043,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1">
         <v>2014</v>
@@ -942,7 +1054,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="1">
         <v>2013</v>
@@ -953,7 +1065,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1">
         <v>2012</v>
@@ -964,7 +1076,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1">
         <v>2011</v>
@@ -975,7 +1087,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1">
         <v>2010</v>
@@ -986,7 +1098,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1">
         <v>2009</v>
@@ -997,7 +1109,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1">
         <v>2008</v>
@@ -1008,7 +1120,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B45" s="1">
         <v>2007</v>
@@ -1019,7 +1131,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46" s="1">
         <v>2006</v>
@@ -1030,7 +1142,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1">
         <v>2005</v>
@@ -1041,7 +1153,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B48" s="1">
         <v>2004</v>
@@ -1052,7 +1164,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B49" s="1">
         <v>2019</v>
@@ -1063,7 +1175,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1">
         <v>2018</v>
@@ -1074,7 +1186,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" s="1">
         <v>2017</v>
@@ -1085,7 +1197,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1">
         <v>2016</v>
@@ -1096,7 +1208,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B53" s="1">
         <v>2015</v>
@@ -1107,7 +1219,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1">
         <v>2014</v>
@@ -1118,7 +1230,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B55" s="1">
         <v>2013</v>
@@ -1129,7 +1241,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B56" s="1">
         <v>2012</v>
@@ -1140,7 +1252,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B57" s="1">
         <v>2011</v>
@@ -1151,7 +1263,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B58" s="1">
         <v>2010</v>
@@ -1162,7 +1274,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B59" s="1">
         <v>2009</v>
@@ -1173,7 +1285,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B60" s="1">
         <v>2008</v>
@@ -1184,7 +1296,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B61" s="1">
         <v>2007</v>
@@ -1195,7 +1307,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B62" s="1">
         <v>2006</v>
@@ -1206,7 +1318,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B63" s="1">
         <v>2005</v>
@@ -1217,7 +1329,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B64" s="1">
         <v>2004</v>
@@ -1228,7 +1340,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1">
         <v>2019</v>
@@ -1239,7 +1351,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B66" s="1">
         <v>2018</v>
@@ -1250,7 +1362,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B67" s="1">
         <v>2017</v>
@@ -1261,7 +1373,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B68" s="1">
         <v>2016</v>
@@ -1272,7 +1384,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B69" s="1">
         <v>2015</v>
@@ -1283,7 +1395,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B70" s="1">
         <v>2014</v>
@@ -1294,7 +1406,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B71" s="1">
         <v>2013</v>
@@ -1305,7 +1417,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B72" s="1">
         <v>2012</v>
@@ -1316,7 +1428,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B73" s="1">
         <v>2011</v>
@@ -1327,7 +1439,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B74" s="1">
         <v>2010</v>
@@ -1338,7 +1450,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B75" s="1">
         <v>2009</v>
@@ -1349,7 +1461,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B76" s="1">
         <v>2008</v>
@@ -1360,7 +1472,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B77" s="1">
         <v>2007</v>
@@ -1371,7 +1483,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B78" s="1">
         <v>2006</v>
@@ -1382,7 +1494,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B79" s="1">
         <v>2005</v>
@@ -1393,7 +1505,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B80" s="1">
         <v>2004</v>
@@ -1404,7 +1516,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B81" s="1">
         <v>2019</v>
@@ -1415,7 +1527,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B82" s="1">
         <v>2018</v>
@@ -1426,7 +1538,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B83" s="1">
         <v>2017</v>
@@ -1437,7 +1549,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B84" s="1">
         <v>2016</v>
@@ -1448,7 +1560,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B85" s="1">
         <v>2015</v>
@@ -1459,7 +1571,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B86" s="1">
         <v>2014</v>
@@ -1470,7 +1582,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B87" s="1">
         <v>2013</v>
@@ -1481,7 +1593,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B88" s="1">
         <v>2012</v>
@@ -1492,7 +1604,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B89" s="1">
         <v>2011</v>
@@ -1503,7 +1615,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B90" s="1">
         <v>2010</v>
@@ -1514,7 +1626,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B91" s="1">
         <v>2009</v>
@@ -1525,7 +1637,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B92" s="1">
         <v>2008</v>
@@ -1536,7 +1648,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B93" s="1">
         <v>2007</v>
@@ -1547,34 +1659,43 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B94" s="1">
         <v>2006</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="1">
+        <f>AVERAGE(C91:C93)</f>
+        <v>5.6420000000000003</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B95" s="1">
         <v>2005</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1">
+        <f>AVERAGE(C92:C94)</f>
+        <v>5.0519999999999996</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B96" s="1">
         <v>2004</v>
       </c>
-      <c r="C96" s="1"/>
+      <c r="C96" s="1">
+        <f>AVERAGE(C93:C95)</f>
+        <v>5.0903333333333336</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B97" s="1">
         <v>2019</v>
@@ -1585,7 +1706,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B98" s="1">
         <v>2018</v>
@@ -1596,7 +1717,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B99" s="1">
         <v>2017</v>
@@ -1607,7 +1728,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B100" s="1">
         <v>2016</v>
@@ -1618,7 +1739,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B101" s="1">
         <v>2015</v>
@@ -1629,7 +1750,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B102" s="1">
         <v>2014</v>
@@ -1640,7 +1761,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B103" s="1">
         <v>2013</v>
@@ -1651,7 +1772,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B104" s="1">
         <v>2012</v>
@@ -1662,7 +1783,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B105" s="1">
         <v>2011</v>
@@ -1673,7 +1794,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B106" s="1">
         <v>2010</v>
@@ -1684,7 +1805,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B107" s="1">
         <v>2009</v>
@@ -1695,7 +1816,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B108" s="1">
         <v>2008</v>
@@ -1706,7 +1827,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B109" s="1">
         <v>2007</v>
@@ -1717,7 +1838,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B110" s="1">
         <v>2006</v>
@@ -1728,7 +1849,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B111" s="1">
         <v>2005</v>
@@ -1739,7 +1860,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B112" s="1">
         <v>2004</v>
@@ -1750,7 +1871,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B113" s="1">
         <v>2019</v>
@@ -1761,7 +1882,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B114" s="1">
         <v>2018</v>
@@ -1772,7 +1893,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B115" s="1">
         <v>2017</v>
@@ -1783,7 +1904,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B116" s="1">
         <v>2016</v>
@@ -1794,7 +1915,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B117" s="1">
         <v>2015</v>
@@ -1805,7 +1926,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B118" s="1">
         <v>2014</v>
@@ -1816,7 +1937,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B119" s="1">
         <v>2013</v>
@@ -1827,7 +1948,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B120" s="1">
         <v>2012</v>
@@ -1838,7 +1959,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B121" s="1">
         <v>2011</v>
@@ -1849,7 +1970,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B122" s="1">
         <v>2010</v>
@@ -1860,7 +1981,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B123" s="1">
         <v>2009</v>
@@ -1871,7 +1992,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B124" s="1">
         <v>2008</v>
@@ -1882,7 +2003,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B125" s="1">
         <v>2007</v>
@@ -1893,7 +2014,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B126" s="1">
         <v>2006</v>
@@ -1904,7 +2025,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B127" s="1">
         <v>2005</v>
@@ -1915,7 +2036,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B128" s="1">
         <v>2004</v>
@@ -2063,7 +2184,10 @@
       <c r="B141" s="1">
         <v>2007</v>
       </c>
-      <c r="C141" s="1"/>
+      <c r="C141" s="1">
+        <f>AVERAGE(C138:C140)</f>
+        <v>5.52</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -2072,7 +2196,10 @@
       <c r="B142" s="1">
         <v>2006</v>
       </c>
-      <c r="C142" s="1"/>
+      <c r="C142" s="1">
+        <f>AVERAGE(C139:C141)</f>
+        <v>5.9859999999999998</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -2081,7 +2208,10 @@
       <c r="B143" s="1">
         <v>2005</v>
       </c>
-      <c r="C143" s="1"/>
+      <c r="C143" s="1">
+        <f>AVERAGE(C140:C142)</f>
+        <v>6.1020000000000003</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -2090,7 +2220,10 @@
       <c r="B144" s="1">
         <v>2004</v>
       </c>
-      <c r="C144" s="1"/>
+      <c r="C144" s="1">
+        <f>AVERAGE(C141:C143)</f>
+        <v>5.8693333333333335</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -2264,7 +2397,10 @@
       <c r="B160" s="1">
         <v>2004</v>
       </c>
-      <c r="C160" s="1"/>
+      <c r="C160" s="1">
+        <f>AVERAGE(C157:C159)</f>
+        <v>3.6086666666666667</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
@@ -2444,7 +2580,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B177" s="1">
         <v>2019</v>
@@ -2455,7 +2591,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B178" s="1">
         <v>2018</v>
@@ -2466,7 +2602,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B179" s="1">
         <v>2017</v>
@@ -2477,7 +2613,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B180" s="1">
         <v>2016</v>
@@ -2488,7 +2624,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B181" s="1">
         <v>2015</v>
@@ -2499,7 +2635,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B182" s="1">
         <v>2014</v>
@@ -2510,7 +2646,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B183" s="1">
         <v>2013</v>
@@ -2521,7 +2657,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B184" s="1">
         <v>2012</v>
@@ -2532,7 +2668,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B185" s="1">
         <v>2011</v>
@@ -2543,7 +2679,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B186" s="1">
         <v>2010</v>
@@ -2554,7 +2690,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B187" s="1">
         <v>2009</v>
@@ -2565,7 +2701,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B188" s="1">
         <v>2008</v>
@@ -2576,7 +2712,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B189" s="1">
         <v>2007</v>
@@ -2587,7 +2723,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B190" s="1">
         <v>2006</v>
@@ -2598,7 +2734,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B191" s="1">
         <v>2005</v>
@@ -2609,7 +2745,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B192" s="1">
         <v>2004</v>
@@ -2972,7 +3108,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B225" s="1">
         <v>2019</v>
@@ -2983,7 +3119,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B226" s="1">
         <v>2018</v>
@@ -2994,7 +3130,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B227" s="1">
         <v>2017</v>
@@ -3005,7 +3141,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B228" s="1">
         <v>2016</v>
@@ -3016,7 +3152,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B229" s="1">
         <v>2015</v>
@@ -3027,7 +3163,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B230" s="1">
         <v>2014</v>
@@ -3038,7 +3174,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B231" s="1">
         <v>2013</v>
@@ -3049,7 +3185,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B232" s="1">
         <v>2012</v>
@@ -3060,7 +3196,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B233" s="1">
         <v>2011</v>
@@ -3071,7 +3207,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B234" s="1">
         <v>2010</v>
@@ -3082,16 +3218,19 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B235" s="1">
         <v>2009</v>
       </c>
-      <c r="C235" s="1"/>
+      <c r="C235" s="1">
+        <f>AVERAGE(C232:C234)</f>
+        <v>2.3879999999999999</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B236" s="1">
         <v>2008</v>
@@ -3102,16 +3241,19 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B237" s="1">
         <v>2007</v>
       </c>
-      <c r="C237" s="1"/>
+      <c r="C237" s="1">
+        <f>AVERAGE(C234:C236)</f>
+        <v>2.0976666666666666</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B238" s="1">
         <v>2006</v>
@@ -3122,7 +3264,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B239" s="1">
         <v>2005</v>
@@ -3133,12 +3275,15 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B240" s="1">
         <v>2004</v>
       </c>
-      <c r="C240" s="1"/>
+      <c r="C240" s="1">
+        <f>AVERAGE(C237:C239)</f>
+        <v>1.8522222222222222</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
@@ -3670,7 +3815,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B289" s="1">
         <v>2019</v>
@@ -3681,7 +3826,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B290" s="1">
         <v>2018</v>
@@ -3692,7 +3837,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B291" s="1">
         <v>2017</v>
@@ -3703,7 +3848,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B292" s="1">
         <v>2016</v>
@@ -3714,7 +3859,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B293" s="1">
         <v>2015</v>
@@ -3725,7 +3870,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B294" s="1">
         <v>2014</v>
@@ -3736,7 +3881,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B295" s="1">
         <v>2013</v>
@@ -3747,7 +3892,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B296" s="1">
         <v>2012</v>
@@ -3758,7 +3903,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B297" s="1">
         <v>2011</v>
@@ -3769,7 +3914,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B298" s="1">
         <v>2010</v>
@@ -3780,7 +3925,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B299" s="1">
         <v>2009</v>
@@ -3791,7 +3936,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B300" s="1">
         <v>2008</v>
@@ -3802,7 +3947,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B301" s="1">
         <v>2007</v>
@@ -3813,7 +3958,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B302" s="1">
         <v>2006</v>
@@ -3824,7 +3969,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B303" s="1">
         <v>2005</v>
@@ -3835,7 +3980,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B304" s="1">
         <v>2004</v>
@@ -4022,7 +4167,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B321" s="1">
         <v>2019</v>
@@ -4033,7 +4178,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B322" s="1">
         <v>2018</v>
@@ -4044,7 +4189,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B323" s="1">
         <v>2017</v>
@@ -4055,7 +4200,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B324" s="1">
         <v>2016</v>
@@ -4066,7 +4211,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B325" s="1">
         <v>2015</v>
@@ -4077,7 +4222,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B326" s="1">
         <v>2014</v>
@@ -4088,7 +4233,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B327" s="1">
         <v>2013</v>
@@ -4099,7 +4244,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B328" s="1">
         <v>2012</v>
@@ -4110,7 +4255,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B329" s="1">
         <v>2011</v>
@@ -4121,7 +4266,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B330" s="1">
         <v>2010</v>
@@ -4132,7 +4277,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B331" s="1">
         <v>2009</v>
@@ -4143,7 +4288,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B332" s="1">
         <v>2008</v>
@@ -4154,7 +4299,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B333" s="1">
         <v>2007</v>
@@ -4165,7 +4310,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B334" s="1">
         <v>2006</v>
@@ -4176,7 +4321,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B335" s="1">
         <v>2005</v>
@@ -4187,7 +4332,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B336" s="1">
         <v>2004</v>
@@ -5078,7 +5223,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B417" s="1">
         <v>2019</v>
@@ -5089,7 +5234,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B418" s="1">
         <v>2018</v>
@@ -5100,7 +5245,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B419" s="1">
         <v>2017</v>
@@ -5111,7 +5256,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B420" s="1">
         <v>2016</v>
@@ -5122,7 +5267,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B421" s="1">
         <v>2015</v>
@@ -5133,7 +5278,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B422" s="1">
         <v>2014</v>
@@ -5144,7 +5289,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B423" s="1">
         <v>2013</v>
@@ -5155,7 +5300,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B424" s="1">
         <v>2012</v>
@@ -5166,7 +5311,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B425" s="1">
         <v>2011</v>
@@ -5177,7 +5322,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B426" s="1">
         <v>2010</v>
@@ -5188,7 +5333,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B427" s="1">
         <v>2009</v>
@@ -5199,7 +5344,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B428" s="1">
         <v>2008</v>
@@ -5210,7 +5355,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B429" s="1">
         <v>2007</v>
@@ -5221,7 +5366,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B430" s="1">
         <v>2006</v>
@@ -5232,7 +5377,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B431" s="1">
         <v>2005</v>
@@ -5243,7 +5388,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B432" s="1">
         <v>2004</v>
@@ -5606,7 +5751,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B465" s="1">
         <v>2019</v>
@@ -5617,7 +5762,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B466" s="1">
         <v>2018</v>
@@ -5628,7 +5773,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B467" s="1">
         <v>2017</v>
@@ -5639,7 +5784,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B468" s="1">
         <v>2016</v>
@@ -5650,7 +5795,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B469" s="1">
         <v>2015</v>
@@ -5661,7 +5806,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B470" s="1">
         <v>2014</v>
@@ -5672,7 +5817,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B471" s="1">
         <v>2013</v>
@@ -5683,7 +5828,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B472" s="1">
         <v>2012</v>
@@ -5694,7 +5839,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B473" s="1">
         <v>2011</v>
@@ -5705,7 +5850,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B474" s="1">
         <v>2010</v>
@@ -5716,7 +5861,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B475" s="1">
         <v>2009</v>
@@ -5727,7 +5872,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B476" s="1">
         <v>2008</v>
@@ -5738,7 +5883,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B477" s="1">
         <v>2007</v>
@@ -5749,7 +5894,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B478" s="1">
         <v>2006</v>
@@ -5760,7 +5905,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B479" s="1">
         <v>2005</v>
@@ -5771,7 +5916,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B480" s="1">
         <v>2004</v>
@@ -6134,7 +6279,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B513" s="1">
         <v>2019</v>
@@ -6145,7 +6290,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B514" s="1">
         <v>2018</v>
@@ -6156,7 +6301,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B515" s="1">
         <v>2017</v>
@@ -6167,7 +6312,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B516" s="1">
         <v>2016</v>
@@ -6178,7 +6323,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B517" s="1">
         <v>2015</v>
@@ -6189,7 +6334,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B518" s="1">
         <v>2014</v>
@@ -6200,7 +6345,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B519" s="1">
         <v>2013</v>
@@ -6211,7 +6356,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B520" s="1">
         <v>2012</v>
@@ -6222,7 +6367,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B521" s="1">
         <v>2011</v>
@@ -6233,7 +6378,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B522" s="1">
         <v>2010</v>
@@ -6244,7 +6389,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B523" s="1">
         <v>2009</v>
@@ -6255,7 +6400,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B524" s="1">
         <v>2008</v>
@@ -6266,43 +6411,54 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B525" s="1">
         <v>2007</v>
       </c>
-      <c r="C525" s="1"/>
+      <c r="C525" s="1">
+        <f>AVERAGE(C522:C524)</f>
+        <v>9.2560000000000002</v>
+      </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B526" s="1">
         <v>2006</v>
       </c>
-      <c r="C526" s="1"/>
+      <c r="C526" s="1">
+        <f>AVERAGE(C523:C525)</f>
+        <v>9.7900000000000009</v>
+      </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B527" s="1">
         <v>2005</v>
       </c>
-      <c r="C527" s="1"/>
+      <c r="C527" s="1">
+        <f>AVERAGE(C524:C526)</f>
+        <v>9.4809999999999999</v>
+      </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B528" s="1">
         <v>2004</v>
       </c>
-      <c r="C528" s="1"/>
+      <c r="C528" s="1">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B529" s="1">
         <v>2019</v>
@@ -6313,7 +6469,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B530" s="1">
         <v>2018</v>
@@ -6324,7 +6480,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B531" s="1">
         <v>2017</v>
@@ -6335,7 +6491,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B532" s="1">
         <v>2016</v>
@@ -6346,7 +6502,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B533" s="1">
         <v>2015</v>
@@ -6357,7 +6513,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B534" s="1">
         <v>2014</v>
@@ -6368,7 +6524,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B535" s="1">
         <v>2013</v>
@@ -6379,7 +6535,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B536" s="1">
         <v>2012</v>
@@ -6390,7 +6546,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B537" s="1">
         <v>2011</v>
@@ -6401,7 +6557,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B538" s="1">
         <v>2010</v>
@@ -6412,7 +6568,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B539" s="1">
         <v>2009</v>
@@ -6423,7 +6579,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B540" s="1">
         <v>2008</v>
@@ -6434,7 +6590,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B541" s="1">
         <v>2007</v>
@@ -6445,7 +6601,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B542" s="1">
         <v>2006</v>
@@ -6456,7 +6612,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B543" s="1">
         <v>2005</v>
@@ -6467,7 +6623,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B544" s="1">
         <v>2004</v>
@@ -6615,7 +6771,10 @@
       <c r="B557" s="1">
         <v>2007</v>
       </c>
-      <c r="C557" s="1"/>
+      <c r="C557" s="1">
+        <f>AVERAGE(C554:C556)</f>
+        <v>4.7636666666666665</v>
+      </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
@@ -6624,7 +6783,9 @@
       <c r="B558" s="1">
         <v>2006</v>
       </c>
-      <c r="C558" s="1"/>
+      <c r="C558" s="1">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
@@ -6633,7 +6794,9 @@
       <c r="B559" s="1">
         <v>2005</v>
       </c>
-      <c r="C559" s="1"/>
+      <c r="C559" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
@@ -6642,11 +6805,14 @@
       <c r="B560" s="1">
         <v>2004</v>
       </c>
-      <c r="C560" s="1"/>
+      <c r="C560" s="1">
+        <f>AVERAGE(C557:C559)</f>
+        <v>4.8878888888888889</v>
+      </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B561" s="1">
         <v>2019</v>
@@ -6657,7 +6823,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B562" s="1">
         <v>2018</v>
@@ -6668,7 +6834,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B563" s="1">
         <v>2017</v>
@@ -6679,7 +6845,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B564" s="1">
         <v>2016</v>
@@ -6690,7 +6856,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B565" s="1">
         <v>2015</v>
@@ -6701,7 +6867,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B566" s="1">
         <v>2014</v>
@@ -6712,7 +6878,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B567" s="1">
         <v>2013</v>
@@ -6723,7 +6889,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B568" s="1">
         <v>2012</v>
@@ -6734,7 +6900,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B569" s="1">
         <v>2011</v>
@@ -6745,7 +6911,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B570" s="1">
         <v>2010</v>
@@ -6756,7 +6922,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B571" s="1">
         <v>2009</v>
@@ -6767,7 +6933,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B572" s="1">
         <v>2008</v>
@@ -6778,7 +6944,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B573" s="1">
         <v>2007</v>
@@ -6789,7 +6955,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B574" s="1">
         <v>2006</v>
@@ -6800,7 +6966,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B575" s="1">
         <v>2005</v>
@@ -6811,7 +6977,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B576" s="1">
         <v>2004</v>
@@ -7004,7 +7170,7 @@
         <v>2019</v>
       </c>
       <c r="C593" s="1">
-        <v>6.4489999999999998</v>
+        <v>9.0289999999999999</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -7015,7 +7181,7 @@
         <v>2018</v>
       </c>
       <c r="C594" s="1">
-        <v>10.715999999999999</v>
+        <v>8.6630000000000003</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -7026,7 +7192,7 @@
         <v>2017</v>
       </c>
       <c r="C595" s="1">
-        <v>7.2229999999999999</v>
+        <v>8.7210000000000001</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -7037,7 +7203,7 @@
         <v>2016</v>
       </c>
       <c r="C596" s="1">
-        <v>8.6780000000000008</v>
+        <v>8.9239999999999995</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -7048,7 +7214,7 @@
         <v>2015</v>
       </c>
       <c r="C597" s="1">
-        <v>9.6539999999999999</v>
+        <v>9.7949999999999999</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -7059,7 +7225,7 @@
         <v>2014</v>
       </c>
       <c r="C598" s="1">
-        <v>8.2590000000000003</v>
+        <v>7.9690000000000003</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -7070,7 +7236,7 @@
         <v>2013</v>
       </c>
       <c r="C599" s="1">
-        <v>9.0350000000000001</v>
+        <v>7.9059999999999997</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -7081,7 +7247,7 @@
         <v>2012</v>
       </c>
       <c r="C600" s="1">
-        <v>7.649</v>
+        <v>6.7889999999999997</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -7092,7 +7258,7 @@
         <v>2011</v>
       </c>
       <c r="C601" s="1">
-        <v>9.9649999999999999</v>
+        <v>8.2040000000000006</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -7102,7 +7268,9 @@
       <c r="B602" s="1">
         <v>2010</v>
       </c>
-      <c r="C602" s="1"/>
+      <c r="C602" s="1">
+        <v>8.1560000000000006</v>
+      </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
@@ -7111,7 +7279,9 @@
       <c r="B603" s="1">
         <v>2009</v>
       </c>
-      <c r="C603" s="1"/>
+      <c r="C603" s="1">
+        <v>9.1660000000000004</v>
+      </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
@@ -7120,7 +7290,9 @@
       <c r="B604" s="1">
         <v>2008</v>
       </c>
-      <c r="C604" s="1"/>
+      <c r="C604" s="1">
+        <v>7.3140000000000001</v>
+      </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
@@ -7129,7 +7301,9 @@
       <c r="B605" s="1">
         <v>2007</v>
       </c>
-      <c r="C605" s="1"/>
+      <c r="C605" s="1">
+        <v>8.4009999999999998</v>
+      </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
@@ -7138,7 +7312,9 @@
       <c r="B606" s="1">
         <v>2006</v>
       </c>
-      <c r="C606" s="1"/>
+      <c r="C606" s="1">
+        <v>7.7320000000000002</v>
+      </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
@@ -7147,7 +7323,9 @@
       <c r="B607" s="1">
         <v>2005</v>
       </c>
-      <c r="C607" s="1"/>
+      <c r="C607" s="1">
+        <v>7.47</v>
+      </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
@@ -7156,329 +7334,12 @@
       <c r="B608" s="1">
         <v>2004</v>
       </c>
-      <c r="C608" s="1"/>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B609" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C609" s="1"/>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B610" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C610" s="1"/>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B611" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C611" s="1"/>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B612" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C612" s="1"/>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B613" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C613" s="1"/>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B614" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C614" s="1"/>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B615" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C615" s="1"/>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B616" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C616" s="1"/>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B617" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C617" s="1"/>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B618" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C618" s="1"/>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A619" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B619" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C619" s="1"/>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B620" s="1">
-        <v>2008</v>
-      </c>
-      <c r="C620" s="1"/>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B621" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C621" s="1"/>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B622" s="1">
-        <v>2006</v>
-      </c>
-      <c r="C622" s="1"/>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B623" s="1">
-        <v>2005</v>
-      </c>
-      <c r="C623" s="1"/>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A624" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B624" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C624" s="1"/>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B625" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C625" s="1">
-        <v>9.0289999999999999</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A626" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B626" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C626" s="1">
-        <v>8.6630000000000003</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A627" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B627" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C627" s="1">
-        <v>8.7210000000000001</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A628" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B628" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C628" s="1">
-        <v>8.9239999999999995</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A629" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B629" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C629" s="1">
-        <v>9.7949999999999999</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A630" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B630" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C630" s="1">
-        <v>7.9690000000000003</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A631" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B631" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C631" s="1">
-        <v>7.9059999999999997</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B632" s="1">
-        <v>2012</v>
-      </c>
-      <c r="C632" s="1">
-        <v>6.7889999999999997</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A633" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B633" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C633" s="1">
-        <v>8.2040000000000006</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A634" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B634" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C634" s="1">
-        <v>8.1560000000000006</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A635" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B635" s="1">
-        <v>2009</v>
-      </c>
-      <c r="C635" s="1">
-        <v>9.1660000000000004</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A636" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B636" s="1">
-        <v>2008</v>
-      </c>
-      <c r="C636" s="1">
-        <v>7.3140000000000001</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A637" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B637" s="1">
-        <v>2007</v>
-      </c>
-      <c r="C637" s="1">
-        <v>8.4009999999999998</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A638" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B638" s="1">
-        <v>2006</v>
-      </c>
-      <c r="C638" s="1">
-        <v>7.7320000000000002</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A639" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B639" s="1">
-        <v>2005</v>
-      </c>
-      <c r="C639" s="1">
-        <v>7.47</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A640" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B640" s="1">
-        <v>2004</v>
-      </c>
-      <c r="C640" s="1">
+      <c r="C608" s="1">
         <v>8.1120000000000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7486,10 +7347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDFA28B-76AD-4FD2-BF1D-946C32633D8C}">
-  <dimension ref="A1:C625"/>
+  <dimension ref="A1:C593"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C610" sqref="C610:C612"/>
+    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
+      <selection activeCell="C541" sqref="C541:C545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7500,15 +7361,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2">
         <v>2019</v>
@@ -7520,7 +7381,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
         <v>2018</v>
@@ -7532,7 +7393,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2">
         <v>2017</v>
@@ -7544,7 +7405,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>2016</v>
@@ -7556,7 +7417,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>2015</v>
@@ -7568,7 +7429,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
         <v>2014</v>
@@ -7580,7 +7441,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>2013</v>
@@ -7592,7 +7453,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>2012</v>
@@ -7604,7 +7465,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>2011</v>
@@ -7616,7 +7477,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
         <v>2010</v>
@@ -7628,7 +7489,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>2009</v>
@@ -7640,7 +7501,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>2008</v>
@@ -7652,7 +7513,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>2007</v>
@@ -7664,7 +7525,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>2006</v>
@@ -7676,23 +7537,31 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>2005</v>
       </c>
+      <c r="C16" s="2">
+        <f>Sheet1!C31-Sheet1!C15</f>
+        <v>9.304566666666668</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>2004</v>
       </c>
+      <c r="C17" s="2">
+        <f>Sheet1!C32-Sheet1!C16</f>
+        <v>9.3503555555555558</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <v>2019</v>
@@ -7704,7 +7573,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <v>2018</v>
@@ -7716,7 +7585,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>2017</v>
@@ -7728,7 +7597,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>2016</v>
@@ -7740,7 +7609,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>2015</v>
@@ -7752,7 +7621,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>2014</v>
@@ -7764,7 +7633,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>2013</v>
@@ -7776,7 +7645,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>2012</v>
@@ -7788,7 +7657,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>2011</v>
@@ -7800,7 +7669,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
         <v>2010</v>
@@ -7812,7 +7681,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2">
         <v>2009</v>
@@ -7824,7 +7693,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
         <v>2008</v>
@@ -7836,7 +7705,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2">
         <v>2007</v>
@@ -7848,7 +7717,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2">
         <v>2006</v>
@@ -7860,7 +7729,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
         <v>2005</v>
@@ -7872,7 +7741,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2">
         <v>2004</v>
@@ -7884,7 +7753,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2">
         <v>2019</v>
@@ -7896,7 +7765,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2">
         <v>2018</v>
@@ -7908,7 +7777,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2">
         <v>2017</v>
@@ -7920,7 +7789,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37" s="2">
         <v>2016</v>
@@ -7932,7 +7801,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38" s="2">
         <v>2015</v>
@@ -7944,7 +7813,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B39" s="2">
         <v>2014</v>
@@ -7956,7 +7825,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2">
         <v>2013</v>
@@ -7968,7 +7837,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2">
         <v>2012</v>
@@ -7980,7 +7849,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="2">
         <v>2011</v>
@@ -7992,7 +7861,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2">
         <v>2010</v>
@@ -8004,7 +7873,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2">
         <v>2009</v>
@@ -8016,7 +7885,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2">
         <v>2008</v>
@@ -8028,7 +7897,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2">
         <v>2007</v>
@@ -8040,7 +7909,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B47" s="2">
         <v>2006</v>
@@ -8052,7 +7921,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B48" s="2">
         <v>2005</v>
@@ -8064,7 +7933,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B49" s="2">
         <v>2004</v>
@@ -8076,7 +7945,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B50" s="2">
         <v>2019</v>
@@ -8088,7 +7957,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B51" s="2">
         <v>2018</v>
@@ -8100,7 +7969,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" s="2">
         <v>2017</v>
@@ -8112,7 +7981,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" s="2">
         <v>2016</v>
@@ -8124,7 +7993,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54" s="2">
         <v>2015</v>
@@ -8136,7 +8005,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B55" s="2">
         <v>2014</v>
@@ -8148,7 +8017,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B56" s="2">
         <v>2013</v>
@@ -8160,7 +8029,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57" s="2">
         <v>2012</v>
@@ -8172,7 +8041,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B58" s="2">
         <v>2011</v>
@@ -8184,7 +8053,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B59" s="2">
         <v>2010</v>
@@ -8196,7 +8065,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B60" s="2">
         <v>2009</v>
@@ -8208,7 +8077,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B61" s="2">
         <v>2008</v>
@@ -8220,7 +8089,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B62" s="2">
         <v>2007</v>
@@ -8232,7 +8101,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B63" s="2">
         <v>2006</v>
@@ -8244,7 +8113,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" s="2">
         <v>2005</v>
@@ -8256,7 +8125,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B65" s="2">
         <v>2004</v>
@@ -8268,7 +8137,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B66" s="2">
         <v>2019</v>
@@ -8280,7 +8149,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B67" s="2">
         <v>2018</v>
@@ -8292,7 +8161,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B68" s="2">
         <v>2017</v>
@@ -8304,7 +8173,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B69" s="2">
         <v>2016</v>
@@ -8316,7 +8185,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B70" s="2">
         <v>2015</v>
@@ -8328,7 +8197,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B71" s="2">
         <v>2014</v>
@@ -8340,7 +8209,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B72" s="2">
         <v>2013</v>
@@ -8352,7 +8221,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B73" s="2">
         <v>2012</v>
@@ -8364,7 +8233,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B74" s="2">
         <v>2011</v>
@@ -8376,7 +8245,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B75" s="2">
         <v>2010</v>
@@ -8388,7 +8257,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B76" s="2">
         <v>2009</v>
@@ -8400,7 +8269,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B77" s="2">
         <v>2008</v>
@@ -8412,7 +8281,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B78" s="2">
         <v>2007</v>
@@ -8424,31 +8293,43 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B79" s="2">
         <v>2006</v>
       </c>
+      <c r="C79" s="2">
+        <f>Sheet1!C94-Sheet1!C14</f>
+        <v>0.93979999999999997</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B80" s="2">
         <v>2005</v>
       </c>
+      <c r="C80" s="2">
+        <f>Sheet1!C95-Sheet1!C15</f>
+        <v>0.66089999999999982</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B81" s="2">
         <v>2004</v>
       </c>
+      <c r="C81" s="2">
+        <f>Sheet1!C96-Sheet1!C16</f>
+        <v>0.8721333333333332</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B82" s="2">
         <v>2019</v>
@@ -8460,7 +8341,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B83" s="2">
         <v>2018</v>
@@ -8472,7 +8353,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B84" s="2">
         <v>2017</v>
@@ -8484,7 +8365,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B85" s="2">
         <v>2016</v>
@@ -8496,7 +8377,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B86" s="2">
         <v>2015</v>
@@ -8508,7 +8389,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B87" s="2">
         <v>2014</v>
@@ -8520,7 +8401,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B88" s="2">
         <v>2013</v>
@@ -8532,7 +8413,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B89" s="2">
         <v>2012</v>
@@ -8544,7 +8425,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B90" s="2">
         <v>2011</v>
@@ -8556,7 +8437,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B91" s="2">
         <v>2010</v>
@@ -8568,7 +8449,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B92" s="2">
         <v>2009</v>
@@ -8580,7 +8461,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B93" s="2">
         <v>2008</v>
@@ -8592,7 +8473,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B94" s="2">
         <v>2007</v>
@@ -8604,7 +8485,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B95" s="2">
         <v>2006</v>
@@ -8616,7 +8497,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B96" s="2">
         <v>2005</v>
@@ -8628,7 +8509,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B97" s="2">
         <v>2004</v>
@@ -8640,7 +8521,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B98" s="2">
         <v>2019</v>
@@ -8652,7 +8533,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B99" s="2">
         <v>2018</v>
@@ -8664,7 +8545,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B100" s="2">
         <v>2017</v>
@@ -8676,7 +8557,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B101" s="2">
         <v>2016</v>
@@ -8688,7 +8569,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B102" s="2">
         <v>2015</v>
@@ -8700,7 +8581,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B103" s="2">
         <v>2014</v>
@@ -8712,7 +8593,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B104" s="2">
         <v>2013</v>
@@ -8724,7 +8605,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B105" s="2">
         <v>2012</v>
@@ -8736,7 +8617,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B106" s="2">
         <v>2011</v>
@@ -8748,7 +8629,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B107" s="2">
         <v>2010</v>
@@ -8760,7 +8641,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B108" s="2">
         <v>2009</v>
@@ -8772,7 +8653,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B109" s="2">
         <v>2008</v>
@@ -8784,7 +8665,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B110" s="2">
         <v>2007</v>
@@ -8796,7 +8677,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B111" s="2">
         <v>2006</v>
@@ -8808,7 +8689,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B112" s="2">
         <v>2005</v>
@@ -8820,7 +8701,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B113" s="2">
         <v>2004</v>
@@ -8981,6 +8862,10 @@
       <c r="B126" s="2">
         <v>2007</v>
       </c>
+      <c r="C126" s="2">
+        <f>Sheet1!C141-Sheet1!C13</f>
+        <v>1.4967999999999995</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
@@ -8989,6 +8874,10 @@
       <c r="B127" s="2">
         <v>2006</v>
       </c>
+      <c r="C127" s="2">
+        <f>Sheet1!C142-Sheet1!C14</f>
+        <v>1.2837999999999994</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
@@ -8997,6 +8886,10 @@
       <c r="B128" s="2">
         <v>2005</v>
       </c>
+      <c r="C128" s="2">
+        <f>Sheet1!C143-Sheet1!C15</f>
+        <v>1.7109000000000005</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
@@ -9005,6 +8898,10 @@
       <c r="B129" s="2">
         <v>2004</v>
       </c>
+      <c r="C129" s="2">
+        <f>Sheet1!C144-Sheet1!C16</f>
+        <v>1.6511333333333331</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
@@ -9193,6 +9090,10 @@
       <c r="B145" s="2">
         <v>2004</v>
       </c>
+      <c r="C145" s="2">
+        <f>Sheet1!C160-Sheet1!C16</f>
+        <v>-0.6095333333333337</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -9388,7 +9289,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B162" s="2">
         <v>2019</v>
@@ -9400,7 +9301,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B163" s="2">
         <v>2018</v>
@@ -9412,7 +9313,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B164" s="2">
         <v>2017</v>
@@ -9424,7 +9325,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B165" s="2">
         <v>2016</v>
@@ -9436,7 +9337,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B166" s="2">
         <v>2015</v>
@@ -9448,7 +9349,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B167" s="2">
         <v>2014</v>
@@ -9460,7 +9361,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B168" s="2">
         <v>2013</v>
@@ -9472,7 +9373,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B169" s="2">
         <v>2012</v>
@@ -9484,7 +9385,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B170" s="2">
         <v>2011</v>
@@ -9496,7 +9397,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B171" s="2">
         <v>2010</v>
@@ -9508,7 +9409,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B172" s="2">
         <v>2009</v>
@@ -9520,7 +9421,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B173" s="2">
         <v>2008</v>
@@ -9532,7 +9433,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B174" s="2">
         <v>2007</v>
@@ -9544,7 +9445,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B175" s="2">
         <v>2006</v>
@@ -9556,7 +9457,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B176" s="2">
         <v>2005</v>
@@ -9568,7 +9469,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B177" s="2">
         <v>2004</v>
@@ -9964,7 +9865,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B210" s="2">
         <v>2019</v>
@@ -9976,7 +9877,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B211" s="2">
         <v>2018</v>
@@ -9988,7 +9889,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B212" s="2">
         <v>2017</v>
@@ -10000,7 +9901,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B213" s="2">
         <v>2016</v>
@@ -10012,7 +9913,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B214" s="2">
         <v>2015</v>
@@ -10024,7 +9925,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B215" s="2">
         <v>2014</v>
@@ -10036,7 +9937,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B216" s="2">
         <v>2013</v>
@@ -10048,7 +9949,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B217" s="2">
         <v>2012</v>
@@ -10060,7 +9961,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B218" s="2">
         <v>2011</v>
@@ -10072,7 +9973,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B219" s="2">
         <v>2010</v>
@@ -10084,15 +9985,19 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B220" s="2">
         <v>2009</v>
       </c>
+      <c r="C220" s="2">
+        <f>Sheet1!C235-Sheet1!C11</f>
+        <v>-1.4488000000000003</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B221" s="2">
         <v>2008</v>
@@ -10104,15 +10009,19 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B222" s="2">
         <v>2007</v>
       </c>
+      <c r="C222" s="2">
+        <f>Sheet1!C237-Sheet1!C13</f>
+        <v>-1.9255333333333335</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B223" s="2">
         <v>2006</v>
@@ -10124,7 +10033,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B224" s="2">
         <v>2005</v>
@@ -10136,10 +10045,14 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B225" s="2">
         <v>2004</v>
+      </c>
+      <c r="C225" s="2">
+        <f>Sheet1!C240-Sheet1!C16</f>
+        <v>-2.3659777777777782</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -10720,7 +10633,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B274" s="2">
         <v>2019</v>
@@ -10732,7 +10645,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B275" s="2">
         <v>2018</v>
@@ -10744,7 +10657,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B276" s="2">
         <v>2017</v>
@@ -10756,7 +10669,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B277" s="2">
         <v>2016</v>
@@ -10768,7 +10681,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B278" s="2">
         <v>2015</v>
@@ -10780,7 +10693,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B279" s="2">
         <v>2014</v>
@@ -10792,7 +10705,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B280" s="2">
         <v>2013</v>
@@ -10804,7 +10717,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B281" s="2">
         <v>2012</v>
@@ -10816,7 +10729,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B282" s="2">
         <v>2011</v>
@@ -10828,7 +10741,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B283" s="2">
         <v>2010</v>
@@ -10840,7 +10753,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B284" s="2">
         <v>2009</v>
@@ -10852,7 +10765,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B285" s="2">
         <v>2008</v>
@@ -10864,7 +10777,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B286" s="2">
         <v>2007</v>
@@ -10876,7 +10789,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B287" s="2">
         <v>2006</v>
@@ -10888,7 +10801,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B288" s="2">
         <v>2005</v>
@@ -10900,7 +10813,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B289" s="2">
         <v>2004</v>
@@ -11104,7 +11017,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B306" s="2">
         <v>2019</v>
@@ -11116,7 +11029,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B307" s="2">
         <v>2018</v>
@@ -11128,7 +11041,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B308" s="2">
         <v>2017</v>
@@ -11140,7 +11053,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B309" s="2">
         <v>2016</v>
@@ -11152,7 +11065,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B310" s="2">
         <v>2015</v>
@@ -11164,7 +11077,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B311" s="2">
         <v>2014</v>
@@ -11176,7 +11089,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B312" s="2">
         <v>2013</v>
@@ -11188,7 +11101,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B313" s="2">
         <v>2012</v>
@@ -11200,7 +11113,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B314" s="2">
         <v>2011</v>
@@ -11212,7 +11125,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B315" s="2">
         <v>2010</v>
@@ -11224,7 +11137,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B316" s="2">
         <v>2009</v>
@@ -11236,7 +11149,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B317" s="2">
         <v>2008</v>
@@ -11248,7 +11161,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B318" s="2">
         <v>2007</v>
@@ -11260,7 +11173,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B319" s="2">
         <v>2006</v>
@@ -11272,7 +11185,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B320" s="2">
         <v>2005</v>
@@ -11284,7 +11197,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B321" s="2">
         <v>2004</v>
@@ -12256,7 +12169,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B402" s="2">
         <v>2019</v>
@@ -12268,7 +12181,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B403" s="2">
         <v>2018</v>
@@ -12280,7 +12193,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B404" s="2">
         <v>2017</v>
@@ -12292,7 +12205,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B405" s="2">
         <v>2016</v>
@@ -12304,7 +12217,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B406" s="2">
         <v>2015</v>
@@ -12316,7 +12229,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B407" s="2">
         <v>2014</v>
@@ -12328,7 +12241,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B408" s="2">
         <v>2013</v>
@@ -12340,7 +12253,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B409" s="2">
         <v>2012</v>
@@ -12352,7 +12265,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B410" s="2">
         <v>2011</v>
@@ -12364,7 +12277,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B411" s="2">
         <v>2010</v>
@@ -12376,7 +12289,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B412" s="2">
         <v>2009</v>
@@ -12388,7 +12301,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B413" s="2">
         <v>2008</v>
@@ -12400,7 +12313,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B414" s="2">
         <v>2007</v>
@@ -12412,7 +12325,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B415" s="2">
         <v>2006</v>
@@ -12424,7 +12337,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B416" s="2">
         <v>2005</v>
@@ -12436,7 +12349,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B417" s="2">
         <v>2004</v>
@@ -12832,7 +12745,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B450" s="2">
         <v>2019</v>
@@ -12844,7 +12757,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B451" s="2">
         <v>2018</v>
@@ -12856,7 +12769,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B452" s="2">
         <v>2017</v>
@@ -12868,7 +12781,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B453" s="2">
         <v>2016</v>
@@ -12880,7 +12793,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B454" s="2">
         <v>2015</v>
@@ -12892,7 +12805,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B455" s="2">
         <v>2014</v>
@@ -12904,7 +12817,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B456" s="2">
         <v>2013</v>
@@ -12916,7 +12829,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B457" s="2">
         <v>2012</v>
@@ -12928,7 +12841,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B458" s="2">
         <v>2011</v>
@@ -12940,7 +12853,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B459" s="2">
         <v>2010</v>
@@ -12952,7 +12865,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B460" s="2">
         <v>2009</v>
@@ -12964,7 +12877,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B461" s="2">
         <v>2008</v>
@@ -12976,7 +12889,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B462" s="2">
         <v>2007</v>
@@ -12988,7 +12901,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B463" s="2">
         <v>2006</v>
@@ -13000,7 +12913,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B464" s="2">
         <v>2005</v>
@@ -13012,7 +12925,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B465" s="2">
         <v>2004</v>
@@ -13408,7 +13321,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B498" s="2">
         <v>2019</v>
@@ -13420,7 +13333,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B499" s="2">
         <v>2018</v>
@@ -13432,7 +13345,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B500" s="2">
         <v>2017</v>
@@ -13444,7 +13357,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B501" s="2">
         <v>2016</v>
@@ -13456,7 +13369,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B502" s="2">
         <v>2015</v>
@@ -13468,7 +13381,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B503" s="2">
         <v>2014</v>
@@ -13480,7 +13393,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B504" s="2">
         <v>2013</v>
@@ -13492,7 +13405,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B505" s="2">
         <v>2012</v>
@@ -13504,7 +13417,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B506" s="2">
         <v>2011</v>
@@ -13516,7 +13429,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B507" s="2">
         <v>2010</v>
@@ -13528,7 +13441,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B508" s="2">
         <v>2009</v>
@@ -13540,7 +13453,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B509" s="2">
         <v>2008</v>
@@ -13552,39 +13465,55 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B510" s="2">
         <v>2007</v>
       </c>
+      <c r="C510" s="2">
+        <f>Sheet1!C525-Sheet1!C13</f>
+        <v>5.2328000000000001</v>
+      </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B511" s="2">
         <v>2006</v>
       </c>
+      <c r="C511" s="2">
+        <f>Sheet1!C526-Sheet1!C14</f>
+        <v>5.0878000000000005</v>
+      </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B512" s="2">
         <v>2005</v>
       </c>
+      <c r="C512" s="2">
+        <f>Sheet1!C527-Sheet1!C15</f>
+        <v>5.0899000000000001</v>
+      </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B513" s="2">
         <v>2004</v>
       </c>
+      <c r="C513" s="2">
+        <f>Sheet1!C528-Sheet1!C16</f>
+        <v>5.3817999999999993</v>
+      </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B514" s="2">
         <v>2019</v>
@@ -13596,7 +13525,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B515" s="2">
         <v>2018</v>
@@ -13608,7 +13537,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B516" s="2">
         <v>2017</v>
@@ -13620,7 +13549,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B517" s="2">
         <v>2016</v>
@@ -13632,7 +13561,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B518" s="2">
         <v>2015</v>
@@ -13644,7 +13573,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B519" s="2">
         <v>2014</v>
@@ -13656,7 +13585,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B520" s="2">
         <v>2013</v>
@@ -13668,7 +13597,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B521" s="2">
         <v>2012</v>
@@ -13680,7 +13609,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B522" s="2">
         <v>2011</v>
@@ -13692,7 +13621,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B523" s="2">
         <v>2010</v>
@@ -13704,7 +13633,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B524" s="2">
         <v>2009</v>
@@ -13716,7 +13645,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B525" s="2">
         <v>2008</v>
@@ -13728,7 +13657,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B526" s="2">
         <v>2007</v>
@@ -13740,7 +13669,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B527" s="2">
         <v>2006</v>
@@ -13752,7 +13681,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B528" s="2">
         <v>2005</v>
@@ -13764,7 +13693,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B529" s="2">
         <v>2004</v>
@@ -13925,6 +13854,10 @@
       <c r="B542" s="2">
         <v>2007</v>
       </c>
+      <c r="C542" s="2">
+        <f>Sheet1!C557-Sheet1!C13</f>
+        <v>0.74046666666666638</v>
+      </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
@@ -13933,6 +13866,10 @@
       <c r="B543" s="2">
         <v>2006</v>
       </c>
+      <c r="C543" s="2">
+        <f>Sheet1!C558-Sheet1!C14</f>
+        <v>0.19779999999999998</v>
+      </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
@@ -13941,6 +13878,10 @@
       <c r="B544" s="2">
         <v>2005</v>
       </c>
+      <c r="C544" s="2">
+        <f>Sheet1!C559-Sheet1!C15</f>
+        <v>0.60890000000000022</v>
+      </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
@@ -13949,10 +13890,14 @@
       <c r="B545" s="2">
         <v>2004</v>
       </c>
+      <c r="C545" s="2">
+        <f>Sheet1!C560-Sheet1!C16</f>
+        <v>0.66968888888888856</v>
+      </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B546" s="2">
         <v>2019</v>
@@ -13964,7 +13909,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B547" s="2">
         <v>2018</v>
@@ -13976,7 +13921,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B548" s="2">
         <v>2017</v>
@@ -13988,7 +13933,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B549" s="2">
         <v>2016</v>
@@ -14000,7 +13945,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B550" s="2">
         <v>2015</v>
@@ -14012,7 +13957,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B551" s="2">
         <v>2014</v>
@@ -14024,7 +13969,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B552" s="2">
         <v>2013</v>
@@ -14036,7 +13981,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B553" s="2">
         <v>2012</v>
@@ -14048,7 +13993,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B554" s="2">
         <v>2011</v>
@@ -14060,7 +14005,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B555" s="2">
         <v>2010</v>
@@ -14072,7 +14017,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B556" s="2">
         <v>2009</v>
@@ -14084,7 +14029,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B557" s="2">
         <v>2008</v>
@@ -14096,7 +14041,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B558" s="2">
         <v>2007</v>
@@ -14108,7 +14053,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B559" s="2">
         <v>2006</v>
@@ -14120,7 +14065,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B560" s="2">
         <v>2005</v>
@@ -14132,7 +14077,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B561" s="2">
         <v>2004</v>
@@ -14342,8 +14287,8 @@
         <v>2019</v>
       </c>
       <c r="C578" s="2">
-        <f>Sheet1!C594-Sheet1!C1</f>
-        <v>8.7984999999999989</v>
+        <f>Sheet1!C593-Sheet1!C1</f>
+        <v>7.1114999999999995</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -14354,8 +14299,8 @@
         <v>2018</v>
       </c>
       <c r="C579" s="2">
-        <f>Sheet1!C595-Sheet1!C2</f>
-        <v>4.5388000000000002</v>
+        <f>Sheet1!C594-Sheet1!C2</f>
+        <v>5.9787999999999997</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -14366,8 +14311,8 @@
         <v>2017</v>
       </c>
       <c r="C580" s="2">
-        <f>Sheet1!C596-Sheet1!C3</f>
-        <v>6.2726000000000006</v>
+        <f>Sheet1!C595-Sheet1!C3</f>
+        <v>6.3155999999999999</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -14378,8 +14323,8 @@
         <v>2016</v>
       </c>
       <c r="C581" s="2">
-        <f>Sheet1!C597-Sheet1!C4</f>
-        <v>7.2096999999999998</v>
+        <f>Sheet1!C596-Sheet1!C4</f>
+        <v>6.4796999999999993</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -14390,8 +14335,8 @@
         <v>2015</v>
       </c>
       <c r="C582" s="2">
-        <f>Sheet1!C598-Sheet1!C5</f>
-        <v>5.9896000000000003</v>
+        <f>Sheet1!C597-Sheet1!C5</f>
+        <v>7.5255999999999998</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -14402,8 +14347,8 @@
         <v>2014</v>
       </c>
       <c r="C583" s="2">
-        <f>Sheet1!C599-Sheet1!C6</f>
-        <v>6.8638000000000003</v>
+        <f>Sheet1!C598-Sheet1!C6</f>
+        <v>5.7978000000000005</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -14414,8 +14359,8 @@
         <v>2013</v>
       </c>
       <c r="C584" s="2">
-        <f>Sheet1!C600-Sheet1!C7</f>
-        <v>4.6208</v>
+        <f>Sheet1!C599-Sheet1!C7</f>
+        <v>4.8777999999999997</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -14426,8 +14371,8 @@
         <v>2012</v>
       </c>
       <c r="C585" s="2">
-        <f>Sheet1!C601-Sheet1!C8</f>
-        <v>8.2075999999999993</v>
+        <f>Sheet1!C600-Sheet1!C8</f>
+        <v>5.0315999999999992</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -14438,8 +14383,8 @@
         <v>2011</v>
       </c>
       <c r="C586" s="2">
-        <f>Sheet1!C602-Sheet1!C9</f>
-        <v>-1.8762000000000001</v>
+        <f>Sheet1!C601-Sheet1!C9</f>
+        <v>6.3278000000000008</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -14449,6 +14394,10 @@
       <c r="B587" s="2">
         <v>2010</v>
       </c>
+      <c r="C587" s="2">
+        <f>Sheet1!C602-Sheet1!C10</f>
+        <v>4.8625000000000007</v>
+      </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
@@ -14457,6 +14406,10 @@
       <c r="B588" s="2">
         <v>2009</v>
       </c>
+      <c r="C588" s="2">
+        <f>Sheet1!C603-Sheet1!C11</f>
+        <v>5.3292000000000002</v>
+      </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
@@ -14465,6 +14418,10 @@
       <c r="B589" s="2">
         <v>2008</v>
       </c>
+      <c r="C589" s="2">
+        <f>Sheet1!C604-Sheet1!C12</f>
+        <v>5.1017000000000001</v>
+      </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
@@ -14473,6 +14430,10 @@
       <c r="B590" s="2">
         <v>2007</v>
       </c>
+      <c r="C590" s="2">
+        <f>Sheet1!C605-Sheet1!C13</f>
+        <v>4.3777999999999997</v>
+      </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
@@ -14481,6 +14442,10 @@
       <c r="B591" s="2">
         <v>2006</v>
       </c>
+      <c r="C591" s="2">
+        <f>Sheet1!C606-Sheet1!C14</f>
+        <v>3.0297999999999998</v>
+      </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
@@ -14489,332 +14454,20 @@
       <c r="B592" s="2">
         <v>2005</v>
       </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C592" s="2">
+        <f>Sheet1!C607-Sheet1!C15</f>
+        <v>3.0789</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B593" s="2">
         <v>2004</v>
       </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B594" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B595" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B596" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B597" s="2">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B598" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B599" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B600" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B601" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B602" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B603" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B604" s="2">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B605" s="2">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B606" s="2">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B607" s="2">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B608" s="2">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B609" s="2">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B610" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C610" s="2">
-        <f>Sheet1!C625-Sheet1!C1</f>
-        <v>7.1114999999999995</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B611" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C611" s="2">
-        <f>Sheet1!C626-Sheet1!C2</f>
-        <v>5.9787999999999997</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B612" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C612" s="2">
-        <f>Sheet1!C627-Sheet1!C3</f>
-        <v>6.3155999999999999</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B613" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C613" s="2">
-        <f>Sheet1!C628-Sheet1!C4</f>
-        <v>6.4796999999999993</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A614" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B614" s="2">
-        <v>2015</v>
-      </c>
-      <c r="C614" s="2">
-        <f>Sheet1!C629-Sheet1!C5</f>
-        <v>7.5255999999999998</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B615" s="2">
-        <v>2014</v>
-      </c>
-      <c r="C615" s="2">
-        <f>Sheet1!C630-Sheet1!C6</f>
-        <v>5.7978000000000005</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A616" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B616" s="2">
-        <v>2013</v>
-      </c>
-      <c r="C616" s="2">
-        <f>Sheet1!C631-Sheet1!C7</f>
-        <v>4.8777999999999997</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B617" s="2">
-        <v>2012</v>
-      </c>
-      <c r="C617" s="2">
-        <f>Sheet1!C632-Sheet1!C8</f>
-        <v>5.0315999999999992</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A618" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B618" s="2">
-        <v>2011</v>
-      </c>
-      <c r="C618" s="2">
-        <f>Sheet1!C633-Sheet1!C9</f>
-        <v>6.3278000000000008</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A619" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B619" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C619" s="2">
-        <f>Sheet1!C634-Sheet1!C10</f>
-        <v>4.8625000000000007</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A620" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B620" s="2">
-        <v>2009</v>
-      </c>
-      <c r="C620" s="2">
-        <f>Sheet1!C635-Sheet1!C11</f>
-        <v>5.3292000000000002</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A621" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B621" s="2">
-        <v>2008</v>
-      </c>
-      <c r="C621" s="2">
-        <f>Sheet1!C636-Sheet1!C12</f>
-        <v>5.1017000000000001</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A622" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B622" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C622" s="2">
-        <f>Sheet1!C637-Sheet1!C13</f>
-        <v>4.3777999999999997</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A623" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B623" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C623" s="2">
-        <f>Sheet1!C638-Sheet1!C14</f>
-        <v>3.0297999999999998</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A624" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B624" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C624" s="2">
-        <f>Sheet1!C639-Sheet1!C15</f>
-        <v>3.0789</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B625" s="2">
-        <v>2004</v>
-      </c>
-      <c r="C625" s="2">
-        <f>Sheet1!C640-Sheet1!C16</f>
+      <c r="C593" s="2">
+        <f>Sheet1!C608-Sheet1!C16</f>
         <v>3.8937999999999997</v>
       </c>
     </row>
